--- a/ofc/estimates/siri dai/kurthali sadak.xlsx
+++ b/ofc/estimates/siri dai/kurthali sadak.xlsx
@@ -48,7 +48,7 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Estimate!$A$1:$K$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">final!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'siri dai'!$A$1:$K$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'siri dai'!$A$1:$K$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'siri dai'!$1:$8</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="100">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -364,6 +364,15 @@
   <si>
     <t>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</t>
   </si>
+  <si>
+    <t>-for flooring</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfn;fdfg pknAw u/L %) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans %) dL=dL=df]6fOsf] qm;/ 8:6 dfyL /fvL la5ofpg]] sfd k'/f </t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +383,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +500,11 @@
       <sz val="12"/>
       <name val="Preeti"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Preeti"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -575,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,17 +843,19 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -854,30 +870,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,6 +898,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -908,6 +922,9 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1626,38 +1643,38 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3306,11 +3323,11 @@
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="112">
+      <c r="C73" s="110">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="113"/>
+      <c r="D73" s="111"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3325,21 +3342,21 @@
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="119">
+      <c r="C74" s="112">
         <v>1000000</v>
       </c>
-      <c r="D74" s="120"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="119">
+      <c r="C75" s="112">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="120"/>
+      <c r="D75" s="113"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
@@ -3349,11 +3366,11 @@
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="118">
+      <c r="C76" s="109">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="118"/>
+      <c r="D76" s="109"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
@@ -3363,11 +3380,11 @@
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="112">
+      <c r="C77" s="110">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="113"/>
+      <c r="D77" s="111"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
@@ -3376,32 +3393,32 @@
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="112">
+      <c r="C78" s="110">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="113"/>
+      <c r="D78" s="111"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,38 +3532,38 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -4711,11 +4728,11 @@
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="112">
+      <c r="C55" s="110">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="113"/>
+      <c r="D55" s="111"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -4731,10 +4748,10 @@
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="119">
+      <c r="C56" s="112">
         <v>500000</v>
       </c>
-      <c r="D56" s="120"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -4742,11 +4759,11 @@
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="119">
+      <c r="C57" s="112">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="120"/>
+      <c r="D57" s="113"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
@@ -4757,11 +4774,11 @@
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="109">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="118"/>
+      <c r="D58" s="109"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
@@ -4772,11 +4789,11 @@
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="112">
+      <c r="C59" s="110">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="113"/>
+      <c r="D59" s="111"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
@@ -4786,24 +4803,17 @@
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C60" s="110">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="113"/>
+      <c r="D60" s="111"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -4812,6 +4822,13 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4852,34 +4869,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116" t="s">
@@ -4912,30 +4929,30 @@
       <c r="K4" s="116"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="121" t="e">
+      <c r="C6" s="128" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4943,11 +4960,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="121" t="e">
+      <c r="J6" s="128" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="122"/>
+      <c r="K6" s="129"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
@@ -4956,77 +4973,77 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="I7" s="129" t="s">
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="I7" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="str">
+      <c r="A8" s="118" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बेन्डोल हाईट सडक निर्माण</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="I8" s="130" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="I8" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="str">
+      <c r="A9" s="126" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="I9" s="130" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="I9" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132" t="s">
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="126" t="s">
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="127" t="s">
+      <c r="K11" s="122" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -5045,8 +5062,8 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="122"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
@@ -5208,6 +5225,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5221,13 +5245,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5339,21 +5356,21 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
@@ -6611,21 +6628,21 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
@@ -7910,13 +7927,6 @@
     <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -7925,6 +7935,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8029,21 +8046,21 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
@@ -9360,6 +9377,13 @@
     <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -9368,13 +9392,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9383,10 +9400,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9479,21 +9496,21 @@
       <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
@@ -10127,9 +10144,9 @@
       </c>
       <c r="K31" s="76"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
-      <c r="B32" s="41"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
@@ -10140,230 +10157,316 @@
       <c r="J32" s="85"/>
       <c r="K32" s="76"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
+    <row r="33" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="80">
         <v>6</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="76"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="80"/>
+      <c r="B34" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="82">
+        <v>1</v>
+      </c>
+      <c r="D34" s="83">
+        <v>10</v>
+      </c>
+      <c r="E34" s="83">
+        <v>10</v>
+      </c>
+      <c r="F34" s="83"/>
+      <c r="G34" s="79">
+        <f>PRODUCT(C34:F34)</f>
+        <v>100</v>
+      </c>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="76"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="80"/>
+      <c r="B35" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="53">
+        <f>SUM(G34:G34)</f>
+        <v>100</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="53">
+        <v>1737.28</v>
+      </c>
+      <c r="J35" s="84">
+        <f>G35*I35</f>
+        <v>173728</v>
+      </c>
+      <c r="K35" s="76"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="80"/>
+      <c r="B36" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="85">
+        <f>0.13*G35*(6947.8/10)</f>
+        <v>9032.14</v>
+      </c>
+      <c r="K36" s="76"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="80"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <v>7</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C38" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="59">
-        <f t="shared" ref="G33" si="0">PRODUCT(C33:F33)</f>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="59">
+        <f t="shared" ref="G38" si="0">PRODUCT(C38:F38)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I38" s="34">
         <v>500</v>
       </c>
-      <c r="J33" s="59">
-        <f>G33*I33</f>
+      <c r="J38" s="59">
+        <f>G38*I38</f>
         <v>500</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="32"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="87" t="s">
+      <c r="K38" s="32"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="32"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="80"/>
+      <c r="B40" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81">
-        <f>SUM(J10:J33)</f>
-        <v>135896.6561091645</v>
-      </c>
-      <c r="K35" s="76"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="98"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
-      <c r="B37" s="40" t="s">
+      <c r="C40" s="88"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81">
+        <f>SUM(J10:J38)</f>
+        <v>318656.79610916448</v>
+      </c>
+      <c r="K40" s="76"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="102"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="98"/>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="91"/>
+      <c r="B42" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="135">
-        <f>J35</f>
-        <v>135896.6561091645</v>
-      </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="79">
-        <v>100</v>
-      </c>
-      <c r="F37" s="92"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="97"/>
-      <c r="B38" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="136">
-        <v>300000</v>
-      </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="97"/>
-      <c r="B39" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="136">
-        <f>C38-C41-C42</f>
-        <v>285000</v>
-      </c>
-      <c r="D39" s="136"/>
-      <c r="E39" s="79">
-        <f>C39/C37*100</f>
-        <v>209.7181845085741</v>
-      </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="97"/>
-      <c r="B40" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="135">
-        <f>C37-C39</f>
-        <v>-149103.3438908355</v>
-      </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="79">
-        <f>100-E39</f>
-        <v>-109.7181845085741</v>
-      </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="90"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="97"/>
-      <c r="B41" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="135">
-        <f>C38*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D41" s="135"/>
-      <c r="E41" s="79">
-        <v>3</v>
-      </c>
-      <c r="F41" s="90"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
-      <c r="B42" s="40" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="135">
-        <f>C38*0.02</f>
-        <v>6000</v>
+        <f>J40</f>
+        <v>318656.79610916448</v>
       </c>
       <c r="D42" s="135"/>
       <c r="E42" s="79">
+        <v>100</v>
+      </c>
+      <c r="F42" s="92"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="96"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="97"/>
+      <c r="B43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="136">
+        <v>275000</v>
+      </c>
+      <c r="D43" s="136"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="90"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="97"/>
+      <c r="B44" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="136">
+        <f>C43-C46-C47</f>
+        <v>261250</v>
+      </c>
+      <c r="D44" s="136"/>
+      <c r="E44" s="79">
+        <f>C44/C42*100</f>
+        <v>81.984757014409254</v>
+      </c>
+      <c r="F44" s="90"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="90"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="97"/>
+      <c r="B45" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="135">
+        <f>C42-C44</f>
+        <v>57406.796109164483</v>
+      </c>
+      <c r="D45" s="135"/>
+      <c r="E45" s="79">
+        <f>100-E44</f>
+        <v>18.015242985590746</v>
+      </c>
+      <c r="F45" s="90"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="90"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="97"/>
+      <c r="B46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="135">
+        <f>C43*0.03</f>
+        <v>8250</v>
+      </c>
+      <c r="D46" s="135"/>
+      <c r="E46" s="79">
+        <v>3</v>
+      </c>
+      <c r="F46" s="90"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="90"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="97"/>
+      <c r="B47" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="135">
+        <f>C43*0.02</f>
+        <v>5500</v>
+      </c>
+      <c r="D47" s="135"/>
+      <c r="E47" s="79">
         <v>2</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="90"/>
-    </row>
-    <row r="43" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-    </row>
-    <row r="44" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="90"/>
+    </row>
+    <row r="48" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+    </row>
     <row r="49" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -10415,16 +10518,13 @@
     <row r="97" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="98" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="99" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -10432,6 +10532,14 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
